--- a/2015-2016/clases/informatica_aplicada/clase_4/clase_4.xlsx
+++ b/2015-2016/clases/informatica_aplicada/clase_4/clase_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:K22"/>
+  <dimension ref="E5:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +478,10 @@
       </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="e">
+        <f>E5:G7+I5:K7</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="I16">
         <v>291</v>
       </c>
@@ -559,6 +563,30 @@
       </c>
       <c r="K22">
         <v>-22</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>PRODUCT(3,4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>ROUND(1.234453,3)</f>
+        <v>1.234</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f>ROUNDUP(1.234453,3)</f>
+        <v>1.2349999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f>ROUNDDOWN(1.234453,3)</f>
+        <v>1.234</v>
       </c>
     </row>
   </sheetData>
@@ -568,12 +596,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D5:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>INT(3.1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>FACT(3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>LN(10)</f>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>MDETERM(D10:F12)</f>
+        <v>44.999999999999908</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>MINVERSE(D10:F12)</f>
+        <v>-2.2666666666666715</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
